--- a/input/Linear1.xlsx
+++ b/input/Linear1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,13 +460,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.107763613804284</v>
+        <v>0.1086503871299013</v>
       </c>
       <c r="C2" t="n">
-        <v>3.71334577835757</v>
+        <v>3.098190120925032</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1895192764028825</v>
+        <v>0.2102712380257867</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>1.642857142857143</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1356053236850068</v>
+        <v>0.06028007884650129</v>
       </c>
       <c r="C3" t="n">
-        <v>5.78587121960775</v>
+        <v>5.963886658390839</v>
       </c>
       <c r="D3" t="n">
-        <v>0.183437711725555</v>
+        <v>0.3213260644776185</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>2.285714285714286</v>
       </c>
       <c r="B4" t="n">
-        <v>0.08876100636734599</v>
+        <v>0.08563621982942979</v>
       </c>
       <c r="C4" t="n">
-        <v>8.11477378633084</v>
+        <v>8.172386766084804</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1787516024944348</v>
+        <v>0.2674528070743238</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>2.928571428571429</v>
       </c>
       <c r="B5" t="n">
-        <v>0.128890476212703</v>
+        <v>0.1289400195320898</v>
       </c>
       <c r="C5" t="n">
-        <v>10.5667382128047</v>
+        <v>10.36018747393904</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2470459040965676</v>
+        <v>0.2841313876750753</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>3.571428571428572</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1342485717624385</v>
+        <v>0.08407321901701156</v>
       </c>
       <c r="C6" t="n">
-        <v>12.46920332150366</v>
+        <v>12.35255299513625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3348437758523751</v>
+        <v>0.4158146589852765</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>4.214285714285714</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08351061983132746</v>
+        <v>0.08543735910689121</v>
       </c>
       <c r="C7" t="n">
-        <v>14.90743551425387</v>
+        <v>14.71842611129444</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3116067314092287</v>
+        <v>0.3283951127639914</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>4.857142857142858</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1305373463882845</v>
+        <v>0.09742130204431984</v>
       </c>
       <c r="C8" t="n">
-        <v>17.25638729096888</v>
+        <v>17.1971104515109</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3390487395061352</v>
+        <v>0.1788360477047702</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>5.5</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1472903680409789</v>
+        <v>0.1427313361246129</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28986718958863</v>
+        <v>19.13140524515815</v>
       </c>
       <c r="D9" t="n">
-        <v>0.344557045906946</v>
+        <v>0.3324845719457836</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>6.142857142857143</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1077420408552263</v>
+        <v>0.1297823871938461</v>
       </c>
       <c r="C10" t="n">
-        <v>21.70901868603058</v>
+        <v>21.31821265264314</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2812037462720751</v>
+        <v>0.3089838900677563</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>6.785714285714286</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1135695464372727</v>
+        <v>0.1454933390831186</v>
       </c>
       <c r="C11" t="n">
-        <v>24.10216478827635</v>
+        <v>23.892298645281</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3870925092526093</v>
+        <v>0.1587934702353489</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>7.428571428571429</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09242157004645837</v>
+        <v>0.1430481615477018</v>
       </c>
       <c r="C12" t="n">
-        <v>25.85039573496065</v>
+        <v>25.66333229387858</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3718587121985804</v>
+        <v>0.4208864622457664</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>8.071428571428573</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1303262892949827</v>
+        <v>0.09442821049168963</v>
       </c>
       <c r="C13" t="n">
-        <v>28.10880175122118</v>
+        <v>28.49226396390035</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2384856256182707</v>
+        <v>0.4419550303532804</v>
       </c>
     </row>
     <row r="14">
@@ -628,13 +628,13 @@
         <v>8.714285714285715</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1443563661254432</v>
+        <v>0.07010726278135324</v>
       </c>
       <c r="C14" t="n">
-        <v>30.28079485941582</v>
+        <v>30.72832861619367</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4068660148105752</v>
+        <v>0.3229970084316202</v>
       </c>
     </row>
     <row r="15">
@@ -642,13 +642,13 @@
         <v>9.357142857142858</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1314109849471692</v>
+        <v>0.09355412441684832</v>
       </c>
       <c r="C15" t="n">
-        <v>32.81571259619662</v>
+        <v>33.0914762897524</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3472385052524843</v>
+        <v>0.3899676978770101</v>
       </c>
     </row>
     <row r="16">
@@ -656,13 +656,13 @@
         <v>10</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1296082051547008</v>
+        <v>0.1405829833570224</v>
       </c>
       <c r="C16" t="n">
-        <v>35.09373390530502</v>
+        <v>35.05212170287883</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1503437518061348</v>
+        <v>0.2751651969038366</v>
       </c>
     </row>
   </sheetData>
